--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/05.DoiMoiBH/DM210717_GPSTayNinh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/05.DoiMoiBH/DM210717_GPSTayNinh.xlsx
@@ -361,6 +361,30 @@
     <xf numFmtId="3" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -372,30 +396,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -754,7 +754,7 @@
   <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="A9" sqref="A9:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -774,9 +774,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
       <c r="D1" s="30" t="s">
         <v>6</v>
       </c>
@@ -787,124 +787,124 @@
       <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="31" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
     </row>
     <row r="3" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="31" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
     </row>
     <row r="4" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="32" t="s">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
     </row>
     <row r="7" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
     </row>
     <row r="8" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
       <c r="M9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
       <c r="L10" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,33 +975,33 @@
       <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29" t="s">
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
       <c r="G15" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="28" t="s">
+      <c r="H15" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="28"/>
+      <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
@@ -1052,45 +1052,34 @@
       <c r="F20" s="20"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29" t="s">
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
       <c r="G21" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="29" t="s">
+      <c r="H21" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="I21" s="29"/>
+      <c r="I21" s="37"/>
       <c r="J21" s="18"/>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
     </row>
     <row r="63" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A1:C4"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D14:I14"/>
     <mergeCell ref="H15:I15"/>
@@ -1099,9 +1088,20 @@
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A6:I6"/>
   </mergeCells>
-  <pageMargins left="0.39370078740157483" right="0" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="57" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.43307086614173201" footer="0.31496062992126"/>
+  <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
